--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1946989.425574457</v>
+        <v>1944445.616067374</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="G2" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>259.632696771575</v>
       </c>
       <c r="W2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68.71732409076205</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.34724819842815</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>132.7078363917128</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>60.9676003338656</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,70 +899,70 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>116.9725659584295</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>59.80127191868297</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.18456372565646</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.856330159867</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>68.98787350302064</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>219.6845965876564</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465025</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.8244010340184</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908739</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.24979976115233</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256402</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932179952</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247906919</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>33.66638448559824</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272905</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.83198018193</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189789</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654307</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.4528255976103</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365954</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802185117</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2375,13 +2375,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784676</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531671</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>80.33989744908958</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183032</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217206</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892455</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608991</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>719.6680007965865</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>545.2149715154595</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>396.2805618542083</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>237.0431068487528</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>90.50854887563773</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4407,7 +4407,7 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
         <v>192.1295835699344</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166546</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166546</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>887.8833378166546</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>887.8833378166546</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>887.8833378166546</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>887.8833378166546</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.0250703768886</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>472.0250703768886</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
         <v>175.0184834666425</v>
@@ -4492,13 +4492,13 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8072004184361</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8072004184361</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8072004184361</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8072004184361</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8176495204187</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.0250703768886</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388467</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>670.32375641013</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388467</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.544000427793</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>486.090971146666</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>337.1565614854147</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>177.9191064799592</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>31.3845485068442</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>31.3845485068442</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>31.3845485068442</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
@@ -4659,37 +4659,37 @@
         <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>474.2580350095594</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>1036.519636212815</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>828.7593374478611</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873.2070551757851</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>704.2708722478782</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>554.1542328355424</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>406.2411392531493</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>259.3511917552389</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>90.78183111024236</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
         <v>21.0971104001205</v>
@@ -4729,16 +4729,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>1054.855520006025</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1808.783079026623</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>1439.820562086211</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>1081.554863479461</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>695.7666108812166</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="F8" t="n">
-        <v>284.780706091609</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>273.1148881236803</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068556</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045933</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661167</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762139</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762133</v>
+        <v>2227.077931858412</v>
       </c>
       <c r="U8" t="n">
-        <v>2182.248837287703</v>
+        <v>2227.077931858412</v>
       </c>
       <c r="V8" t="n">
-        <v>2182.248837287703</v>
+        <v>2227.077931858412</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.248837287703</v>
+        <v>1874.309276588298</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.783079026623</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.783079026623</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010814</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199544</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587031</v>
       </c>
       <c r="E9" t="n">
         <v>448.6792199487295</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572703</v>
+        <v>559.9063389572711</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907513</v>
+        <v>854.4423223907527</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865052</v>
+        <v>1217.508790865054</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337621</v>
+        <v>1851.248074049894</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.48000332501</v>
+        <v>2183.134884037283</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789035</v>
+        <v>2430.170242466908</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034278</v>
+        <v>2545.387641020653</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685351</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.72632175158</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519838</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791636</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586103</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686134</v>
+        <v>367.037385632673</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407065</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283707</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459776</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480672</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380132</v>
+        <v>76.63468308380163</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.250021567657</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.865389990404</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1336.515802634455</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1113.53450110886</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477361</v>
+        <v>838.1030204998733</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440401</v>
+        <v>548.6858504629128</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542383</v>
+        <v>548.6858504629128</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988531</v>
+        <v>548.6858504629128</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2345.910930857312</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876762</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597693</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.8464821474336</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650404</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.75413883276</v>
+        <v>762.5477693179149</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048531</v>
+        <v>593.611586390008</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776723</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>295.5818533952792</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235171</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258112</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.43155760231</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396423</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704547</v>
+        <v>1211.329899359462</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.19518280653</v>
+        <v>983.340348461445</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036629997</v>
+        <v>762.5477693179149</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,22 +5771,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703172</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703172</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579814</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,55 +5978,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
@@ -6054,40 +6054,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>483.8760050556308</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>316.6799057705107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>174.9680746127088</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.7140495035743</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7175,16 +7175,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400703</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121634</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121634</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121634</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138402</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.50206557031</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658823</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.26288739959432</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538082</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094965</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348518</v>
+        <v>36.31458639917538</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538654</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922618</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.3599015160464</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610334</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0033420516693</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532095</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.465574624718</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761453</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9259388694759565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604385</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143971</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856647</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922698</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909865048</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405011</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>883758.6402604652</v>
+        <v>883758.6402604653</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447284</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447284</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447284</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830046</v>
@@ -26344,7 +26344,7 @@
         <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
@@ -26353,7 +26353,7 @@
         <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658078</v>
+        <v>390680.0076580797</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606944</v>
+        <v>507909.2320606925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191142</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101745</v>
+        <v>95270.23779101789</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631774</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447213</v>
+        <v>141668.8507447208</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26445,7 +26445,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26473,7 +26473,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756789</v>
+        <v>92902.86757567903</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420528.6101536381</v>
+        <v>-420528.6101536386</v>
       </c>
       <c r="C6" t="n">
         <v>259559.3704375549</v>
       </c>
       <c r="D6" t="n">
-        <v>-50522.48707347993</v>
+        <v>-50522.487073481</v>
       </c>
       <c r="E6" t="n">
-        <v>-55806.11831840287</v>
+        <v>-55840.85624383659</v>
       </c>
       <c r="F6" t="n">
-        <v>452103.1137422919</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="G6" t="n">
-        <v>452103.1137422918</v>
+        <v>452068.375816856</v>
       </c>
       <c r="H6" t="n">
-        <v>452103.1137422916</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="I6" t="n">
-        <v>452103.1137422913</v>
+        <v>452068.3758168559</v>
       </c>
       <c r="J6" t="n">
-        <v>383103.9593231774</v>
+        <v>383069.2213977416</v>
       </c>
       <c r="K6" t="n">
-        <v>452103.1137422916</v>
+        <v>452068.375816856</v>
       </c>
       <c r="L6" t="n">
-        <v>356832.8759512742</v>
+        <v>356798.1380258381</v>
       </c>
       <c r="M6" t="n">
-        <v>319385.1380468222</v>
+        <v>319350.4001213871</v>
       </c>
       <c r="N6" t="n">
-        <v>452103.1137422915</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="O6" t="n">
-        <v>452103.1137422916</v>
+        <v>452068.3758168559</v>
       </c>
       <c r="P6" t="n">
-        <v>452103.1137422914</v>
+        <v>452068.3758168558</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.7024595627835</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,19 +26793,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856966</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.016897076984856e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933037</v>
+        <v>319.6474457933051</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788919</v>
+        <v>434.2730407788903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841906</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>68.11956169855989</v>
       </c>
       <c r="W2" t="n">
-        <v>116.9617832120864</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,19 +27458,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>67.3053954956614</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788762</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>90.50650948785304</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>225.2910301688119</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>264.9578041138323</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>33.73724027584912</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001052649</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>83.39428583283615</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>81.3488776326441</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.9066996444506</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164527094</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164533716</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899067</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.6876672912352</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.090378552487076e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-2.149051963197538e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7.30384078122307e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>6.361187418448004e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6.14772518971201e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29047,13 +29047,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29095,13 +29095,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885559</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546674</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972535</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763193</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354933</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.0954050359944</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.760257752508</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307897</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.7691690983024</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542132</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140475</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026275</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.303051450217</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571283</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617169</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.3360580152217</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519086</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.09502415413394</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490125</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708732</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307418</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658779</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.194100917942755</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.09183958618650338</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34211,22 +34211,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34869,7 +34869,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958076</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705672</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313388</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655061</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087217</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559171</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.337407809103</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430329</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797637</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>62.90656844127597</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884361</v>
+        <v>450.9268494884366</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772535</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396979</v>
+        <v>366.7338065396986</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318877</v>
+        <v>640.1406900856966</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074642</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899248</v>
+        <v>249.5306650804289</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.32840335569037</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.68023017873323</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010515</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790114</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066202</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37938,7 +37938,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
